--- a/biology/Médecine/Auger_Ferrier/Auger_Ferrier.xlsx
+++ b/biology/Médecine/Auger_Ferrier/Auger_Ferrier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Auger Ferrier, né en 1513 dans les environs de Toulouse et mort en 1588, est un médecin et astrologue français.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Élevé avec beaucoup de soin par son père qui était chirurgien, Ferrier avait accompagné l’étude de la médecine et de la jurisprudence de celle des mathématiques, pour lesquelles il avait un penchant déclaré et dont il possédait la connaissance à un haut degré. Il prit le bonnet de docteur à Montpellier en 1540 sous Jean Schyron. Il s’adonnait également particulièrement à l’astrologie judiciaire, fort en crédit de son temps. Après son doctorat, il vint se fixer à Paris, où son extérieur fort agréable, sa politesse recherchée, sa conversation spirituelle et persuasive que relevaient un fonds de science et enfin ses talents en astrologie le firent bientôt admettre dans la confiance et la familiarité des personnages les plus illustres.
 Le garde des Sceaux de France, le cardinal Bertrand, qui lui était attaché, le présenta à la reine Catherine de Médicis qui le nomma son médecin ordinaire. Il entra dans les bonnes grâces de ce prélat qui le conduisit avec lui à Rome, où il ne tarda pas à jouir de la même célébrité et de la même vogue qu’à Paris et à Montpellier. Les amis qu’il s’y fit contribuèrent à sa réputation. Il en eut aussi plusieurs en France ; il vécut, en particulier, dans la plus grande intimité avec Jules César Scaliger, médecin et astrologue d’Agen, qui eut tant de confiance en lui, que dans ses études, dans la cure même des maladies qu’il avait à traiter, il n’entreprit souvent rien sans l’avoir consulté.
